--- a/excel/automation.xlsx
+++ b/excel/automation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="0">
   <si>
     <t>Case ID</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>Login screen should display</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>Login Credentials</t>
+  </si>
+  <si>
+    <t>Check for valid uname and password</t>
+  </si>
+  <si>
+    <t>username and password should be accepted</t>
   </si>
 </sst>
 </file>
@@ -75,9 +87,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -128,7 +140,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,40 +148,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,22 +194,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -214,6 +203,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +286,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -293,84 +383,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,26 +480,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -514,6 +506,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,16 +580,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,64 +598,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,44 +664,44 @@
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -702,9 +714,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1025,20 +1034,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="28.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5714285714286" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.5714285714286" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" style="1" width="9.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="28.8571428571429" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="26.5714285714286" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="32.5714285714286" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="16.4285714285714" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1071,7 +1080,7 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1088,7 +1097,7 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1105,7 +1114,24 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="30" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/excel/automation.xlsx
+++ b/excel/automation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="0">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>Case ID</t>
   </si>
@@ -49,7 +49,7 @@
     <t>TC_002</t>
   </si>
   <si>
-    <t>Home</t>
+    <t>HomeScreen</t>
   </si>
   <si>
     <t>Check for home screen after installation</t>
@@ -80,6 +80,30 @@
   </si>
   <si>
     <t>username and password should be accepted</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Checking for settings screen</t>
+  </si>
+  <si>
+    <t>Navigate to settings screen</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Checking for profile screen</t>
+  </si>
+  <si>
+    <t>Navigate to user profile details</t>
   </si>
 </sst>
 </file>
@@ -87,9 +111,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -117,15 +141,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,6 +162,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -146,9 +201,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,8 +246,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -172,82 +271,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,6 +286,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -286,6 +334,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -299,150 +467,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,6 +477,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,26 +504,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,173 +564,164 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,20 +1058,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="28.8571428571429" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="26.5714285714286" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="32.5714285714286" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="16.4285714285714" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="28.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5714285714286" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.5714285714286" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1132,6 +1156,40 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
     </row>

--- a/excel/automation.xlsx
+++ b/excel/automation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="0">
   <si>
     <t>Case ID</t>
   </si>
@@ -111,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -141,14 +141,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,9 +163,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,44 +225,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,16 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,7 +256,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,23 +271,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,6 +286,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -310,30 +454,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -346,127 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,11 +480,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,6 +510,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -515,30 +530,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,18 +568,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,130 +598,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,12 +1066,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="28.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5714285714286" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.5714285714286" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" style="1" width="9.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="28.8571428571429" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="26.5714285714286" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="32.5714285714286" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="16.4285714285714" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
